--- a/StructureDefinition-lmdi-medicationrequest.xlsx
+++ b/StructureDefinition-lmdi-medicationrequest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-lmdi-medicationrequest.xlsx
+++ b/StructureDefinition-lmdi-medicationrequest.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$86</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3097" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="618">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-10</t>
+    <t>2025-04-01</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -435,38 +435,97 @@
     <t>MedicationRequest.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:prosentvisDoseendring</t>
+  </si>
+  <si>
+    <t>prosentvisDoseendring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-prosentvis-doseendring}
+</t>
+  </si>
+  <si>
+    <t>Doseendring i prosent</t>
+  </si>
+  <si>
+    <t>Doseendring i prosent, sammenlignet med opprinnelig dosering. Spesielt relevant ved kjemoterapi. Kan ha verdier fra 0. Ved vanlig dose uten endring er doseendring 100 (%). Enhet skal være prosent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:delAvBehandlingsregime</t>
+  </si>
+  <si>
+    <t>delAvBehandlingsregime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-del-av-behandlingsregime}
+</t>
+  </si>
+  <si>
+    <t>Del av behandlingsregime</t>
+  </si>
+  <si>
+    <t>Navnet på kuren, behandlingsregimet eller protokollen legemidlet gis som en del av. Spesielt relevant ved kjemoterapi.</t>
+  </si>
+  <si>
+    <t>MedicationRequest.extension:kliniskStudie</t>
+  </si>
+  <si>
+    <t>kliniskStudie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/ig/lmdi/StructureDefinition/lmdi-klinisk-studie}
+</t>
+  </si>
+  <si>
+    <t>Legemiddel i klinisk studie</t>
+  </si>
+  <si>
+    <t>Angir om legemidlet gis som en del av en klinisk studie.</t>
+  </si>
+  <si>
+    <t>MedicationRequest.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>MedicationRequest.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -1136,17 +1195,13 @@
     <t>MedicationRequest.dosageInstruction.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -2218,7 +2273,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO83"/>
+  <dimension ref="A1:AO86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2229,7 +2284,7 @@
   <cols>
     <col min="1" max="1" width="61.27734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="61.27734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="23.94921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3218,7 +3273,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3237,17 +3292,15 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>81</v>
@@ -3284,16 +3337,14 @@
         <v>81</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>140</v>
@@ -3317,7 +3368,7 @@
         <v>81</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>81</v>
@@ -3331,43 +3382,41 @@
         <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>81</v>
       </c>
@@ -3415,7 +3464,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3424,7 +3473,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>141</v>
@@ -3436,7 +3485,7 @@
         <v>81</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>81</v>
@@ -3447,12 +3496,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>81</v>
       </c>
@@ -3461,10 +3512,10 @@
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>81</v>
@@ -3473,17 +3524,15 @@
         <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>81</v>
@@ -3532,7 +3581,7 @@
         <v>81</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3541,66 +3590,66 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>156</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>81</v>
@@ -3625,11 +3674,13 @@
         <v>81</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y12" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z12" t="s" s="2">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>81</v>
@@ -3647,31 +3698,31 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>81</v>
@@ -3679,44 +3730,46 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>81</v>
       </c>
@@ -3740,13 +3793,13 @@
         <v>81</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>174</v>
+        <v>81</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>81</v>
@@ -3764,28 +3817,28 @@
         <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>81</v>
@@ -3796,10 +3849,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3807,31 +3860,31 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>91</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3857,13 +3910,13 @@
         <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>81</v>
@@ -3881,13 +3934,13 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>81</v>
@@ -3896,27 +3949,27 @@
         <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>81</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3924,31 +3977,31 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3974,13 +4027,11 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
@@ -3998,13 +4049,13 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>81</v>
@@ -4013,16 +4064,16 @@
         <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>81</v>
@@ -4030,10 +4081,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4053,18 +4104,20 @@
         <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -4089,13 +4142,13 @@
         <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>81</v>
@@ -4113,7 +4166,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -4128,16 +4181,16 @@
         <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>81</v>
@@ -4145,10 +4198,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4156,13 +4209,13 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>91</v>
@@ -4171,16 +4224,16 @@
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4206,13 +4259,13 @@
         <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>81</v>
@@ -4230,10 +4283,10 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>90</v>
@@ -4245,16 +4298,16 @@
         <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>81</v>
@@ -4262,10 +4315,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4276,7 +4329,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>81</v>
@@ -4285,18 +4338,20 @@
         <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>81</v>
@@ -4321,13 +4376,13 @@
         <v>81</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>81</v>
+        <v>208</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>81</v>
@@ -4345,13 +4400,13 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>81</v>
@@ -4363,13 +4418,13 @@
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>211</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -4388,13 +4443,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>81</v>
@@ -4403,17 +4458,15 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>216</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -4438,13 +4491,13 @@
         <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>81</v>
+        <v>215</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>81</v>
@@ -4465,7 +4518,7 @@
         <v>212</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>90</v>
@@ -4480,24 +4533,24 @@
         <v>217</v>
       </c>
       <c r="AL19" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AN19" t="s" s="2">
-        <v>220</v>
-      </c>
       <c r="AO19" t="s" s="2">
-        <v>221</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4505,31 +4558,31 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4579,10 +4632,10 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>90</v>
@@ -4594,27 +4647,27 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>227</v>
+        <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>228</v>
+        <v>81</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>230</v>
+        <v>81</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>231</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4634,20 +4687,18 @@
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>81</v>
@@ -4696,7 +4747,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4711,27 +4762,27 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>240</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4739,30 +4790,32 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4811,13 +4864,13 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>81</v>
@@ -4826,27 +4879,27 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>81</v>
+        <v>236</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="AN22" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4854,13 +4907,13 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>81</v>
@@ -4869,15 +4922,17 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>81</v>
@@ -4926,10 +4981,10 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>90</v>
@@ -4941,27 +4996,27 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4969,30 +5024,32 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -5041,7 +5098,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -5056,27 +5113,27 @@
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>81</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5099,13 +5156,13 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5156,13 +5213,13 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
@@ -5171,16 +5228,16 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>81</v>
@@ -5188,10 +5245,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5202,7 +5259,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>81</v>
@@ -5214,17 +5271,15 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>168</v>
+        <v>266</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -5249,13 +5304,13 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -5273,7 +5328,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5288,27 +5343,27 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>81</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5316,28 +5371,28 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5388,7 +5443,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5403,16 +5458,16 @@
         <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>81</v>
+        <v>278</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>81</v>
@@ -5420,10 +5475,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5434,7 +5489,7 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>81</v>
@@ -5446,17 +5501,15 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>168</v>
+        <v>281</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>81</v>
@@ -5481,13 +5534,13 @@
         <v>81</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>287</v>
+        <v>81</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>81</v>
@@ -5505,13 +5558,13 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
@@ -5520,27 +5573,27 @@
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>293</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5551,7 +5604,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>81</v>
@@ -5560,19 +5613,19 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>295</v>
+        <v>186</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5598,13 +5651,13 @@
         <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>81</v>
+        <v>292</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>81</v>
@@ -5622,13 +5675,13 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>81</v>
@@ -5637,16 +5690,16 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>81</v>
@@ -5654,10 +5707,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5668,7 +5721,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
@@ -5677,16 +5730,16 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5737,13 +5790,13 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
@@ -5752,16 +5805,16 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>305</v>
+        <v>81</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>81</v>
@@ -5769,10 +5822,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5792,18 +5845,20 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>104</v>
+        <v>186</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5828,13 +5883,13 @@
         <v>81</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>81</v>
+        <v>306</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>81</v>
@@ -5852,7 +5907,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5867,27 +5922,27 @@
         <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>81</v>
+        <v>307</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>81</v>
+        <v>308</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>81</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5898,7 +5953,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>81</v>
@@ -5907,18 +5962,20 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5967,7 +6024,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5982,16 +6039,16 @@
         <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>81</v>
+        <v>310</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>81</v>
@@ -5999,10 +6056,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6013,7 +6070,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>81</v>
@@ -6025,18 +6082,16 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>148</v>
+        <v>320</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>319</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>81</v>
       </c>
@@ -6084,13 +6139,13 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
@@ -6099,13 +6154,13 @@
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -6116,10 +6171,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6130,7 +6185,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -6139,20 +6194,18 @@
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -6177,13 +6230,13 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>326</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>327</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
@@ -6201,13 +6254,13 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
@@ -6222,7 +6275,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -6233,10 +6286,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6256,16 +6309,16 @@
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6316,7 +6369,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6331,13 +6384,13 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -6348,10 +6401,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6362,7 +6415,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>81</v>
@@ -6371,19 +6424,21 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
       </c>
@@ -6431,13 +6486,13 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>81</v>
@@ -6446,13 +6501,13 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6463,10 +6518,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6477,7 +6532,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
@@ -6489,16 +6544,16 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6524,13 +6579,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>81</v>
+        <v>344</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>81</v>
+        <v>345</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -6548,13 +6603,13 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>81</v>
@@ -6563,13 +6618,13 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>347</v>
+        <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6580,10 +6635,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6594,7 +6649,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>81</v>
@@ -6606,13 +6661,13 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6663,28 +6718,28 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6695,21 +6750,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
@@ -6721,17 +6776,15 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>136</v>
+        <v>354</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>137</v>
+        <v>355</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="N39" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6768,19 +6821,19 @@
         <v>81</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>357</v>
+        <v>81</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>358</v>
+        <v>81</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>359</v>
+        <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6792,16 +6845,16 @@
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>81</v>
+        <v>357</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>81</v>
+        <v>358</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6812,14 +6865,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>362</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6832,26 +6885,24 @@
         <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>136</v>
+        <v>361</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="N40" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6899,7 +6950,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6911,16 +6962,16 @@
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>81</v>
+        <v>365</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>133</v>
+        <v>366</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6931,10 +6982,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6954,21 +7005,19 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>370</v>
-      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
@@ -7028,7 +7077,7 @@
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
@@ -7043,26 +7092,26 @@
         <v>81</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>373</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -7071,21 +7120,21 @@
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>350</v>
+        <v>135</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>377</v>
-      </c>
+      <c r="N42" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>81</v>
       </c>
@@ -7121,31 +7170,31 @@
         <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>81</v>
+        <v>376</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
@@ -7160,19 +7209,19 @@
         <v>81</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>379</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>81</v>
+        <v>379</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7185,25 +7234,25 @@
         <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>382</v>
-      </c>
       <c r="N43" t="s" s="2">
-        <v>383</v>
+        <v>162</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>384</v>
+        <v>163</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -7228,13 +7277,13 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>385</v>
+        <v>81</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>386</v>
+        <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -7252,7 +7301,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7264,7 +7313,7 @@
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>81</v>
@@ -7273,21 +7322,21 @@
         <v>81</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>372</v>
+        <v>133</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>388</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7310,16 +7359,18 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7367,7 +7418,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7388,21 +7439,21 @@
         <v>81</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7413,7 +7464,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -7425,19 +7476,17 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7486,7 +7535,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7507,21 +7556,21 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>81</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7532,7 +7581,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>81</v>
@@ -7544,18 +7593,20 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>402</v>
+        <v>186</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7579,13 +7630,13 @@
         <v>81</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>81</v>
@@ -7603,13 +7654,13 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
@@ -7624,21 +7675,21 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7661,20 +7712,16 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>168</v>
+        <v>368</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>81</v>
       </c>
@@ -7698,13 +7745,13 @@
         <v>81</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>416</v>
+        <v>81</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>417</v>
+        <v>81</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>81</v>
@@ -7722,7 +7769,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7743,21 +7790,21 @@
         <v>81</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>420</v>
+        <v>405</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7780,17 +7827,19 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>168</v>
+        <v>411</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="O48" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7815,13 +7864,13 @@
         <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>425</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>426</v>
+        <v>81</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>81</v>
@@ -7839,7 +7888,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7860,21 +7909,21 @@
         <v>81</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>429</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7897,20 +7946,18 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>168</v>
+        <v>419</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>81</v>
       </c>
@@ -7934,13 +7981,13 @@
         <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>81</v>
@@ -7958,7 +8005,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7979,21 +8026,21 @@
         <v>81</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8004,7 +8051,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
@@ -8016,16 +8063,20 @@
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>441</v>
+        <v>186</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>81</v>
       </c>
@@ -8049,13 +8100,13 @@
         <v>81</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>81</v>
+        <v>433</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>81</v>
+        <v>434</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>81</v>
@@ -8073,13 +8124,13 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
@@ -8094,21 +8145,21 @@
         <v>81</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>81</v>
+        <v>436</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8128,19 +8179,21 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>350</v>
+        <v>186</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>351</v>
+        <v>439</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>352</v>
+        <v>440</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>81</v>
       </c>
@@ -8164,13 +8217,13 @@
         <v>81</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>81</v>
+        <v>442</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>81</v>
@@ -8188,7 +8241,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>353</v>
+        <v>444</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8200,7 +8253,7 @@
         <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>81</v>
@@ -8209,13 +8262,13 @@
         <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>354</v>
+        <v>445</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>81</v>
+        <v>446</v>
       </c>
     </row>
     <row r="52" hidden="true">
@@ -8227,14 +8280,14 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>81</v>
@@ -8243,21 +8296,23 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>137</v>
+        <v>448</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>356</v>
+        <v>449</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
       </c>
@@ -8281,43 +8336,43 @@
         <v>81</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>81</v>
+        <v>452</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>81</v>
+        <v>453</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>357</v>
+        <v>81</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>358</v>
+        <v>81</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>359</v>
+        <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>360</v>
+        <v>454</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>81</v>
@@ -8326,21 +8381,21 @@
         <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>354</v>
+        <v>455</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>81</v>
+        <v>456</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8351,7 +8406,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>81</v>
@@ -8363,18 +8418,16 @@
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>168</v>
+        <v>458</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>451</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8398,13 +8451,13 @@
         <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>452</v>
+        <v>81</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>453</v>
+        <v>81</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>81</v>
@@ -8422,13 +8475,13 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>81</v>
@@ -8449,15 +8502,15 @@
         <v>81</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8477,23 +8530,19 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>457</v>
+        <v>368</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>458</v>
+        <v>369</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>81</v>
       </c>
@@ -8541,7 +8590,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>462</v>
+        <v>371</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8553,7 +8602,7 @@
         <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>81</v>
@@ -8562,13 +8611,13 @@
         <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>438</v>
+        <v>372</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>463</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" hidden="true">
@@ -8580,14 +8629,14 @@
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>
@@ -8596,23 +8645,21 @@
         <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>465</v>
+        <v>135</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>466</v>
+        <v>374</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>467</v>
+        <v>375</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>469</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>81</v>
       </c>
@@ -8648,31 +8695,31 @@
         <v>81</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>81</v>
+        <v>376</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>470</v>
+        <v>377</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>81</v>
@@ -8681,21 +8728,21 @@
         <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>471</v>
+        <v>372</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>472</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8718,19 +8765,17 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>474</v>
+        <v>186</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>477</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8755,13 +8800,13 @@
         <v>81</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>81</v>
+        <v>469</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>81</v>
+        <v>470</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>81</v>
@@ -8779,7 +8824,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8800,21 +8845,21 @@
         <v>81</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>480</v>
+        <v>81</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8837,19 +8882,19 @@
         <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>81</v>
@@ -8898,7 +8943,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8919,21 +8964,21 @@
         <v>81</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>489</v>
+        <v>455</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>81</v>
+        <v>480</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8956,17 +9001,19 @@
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>491</v>
-      </c>
       <c r="M58" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>485</v>
+      </c>
       <c r="O58" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -9015,7 +9062,7 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -9036,21 +9083,21 @@
         <v>81</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9061,7 +9108,7 @@
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>81</v>
@@ -9070,19 +9117,23 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
@@ -9130,7 +9181,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9148,24 +9199,24 @@
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>499</v>
+        <v>81</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>81</v>
+        <v>498</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9185,19 +9236,23 @@
         <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>81</v>
       </c>
@@ -9245,7 +9300,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>353</v>
+        <v>505</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9257,7 +9312,7 @@
         <v>81</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>81</v>
@@ -9266,7 +9321,7 @@
         <v>81</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>354</v>
+        <v>506</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9277,21 +9332,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>81</v>
@@ -9300,21 +9355,21 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>136</v>
+        <v>500</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>137</v>
+        <v>508</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>510</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
       </c>
@@ -9362,19 +9417,19 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>360</v>
+        <v>511</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>81</v>
@@ -9383,7 +9438,7 @@
         <v>81</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>354</v>
+        <v>506</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -9394,46 +9449,42 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>362</v>
+        <v>81</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>136</v>
+        <v>513</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>363</v>
+        <v>514</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9481,28 +9532,28 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>365</v>
+        <v>512</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>81</v>
+        <v>516</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>133</v>
+        <v>517</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -9513,10 +9564,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9539,17 +9590,15 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>496</v>
+        <v>368</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>505</v>
+        <v>369</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>81</v>
@@ -9598,7 +9647,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>504</v>
+        <v>371</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9610,7 +9659,7 @@
         <v>81</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>81</v>
@@ -9619,7 +9668,7 @@
         <v>81</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>508</v>
+        <v>372</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9630,21 +9679,21 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>81</v>
@@ -9656,15 +9705,17 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>350</v>
+        <v>135</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>81</v>
@@ -9713,19 +9764,19 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>81</v>
@@ -9734,7 +9785,7 @@
         <v>81</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -9745,14 +9796,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>135</v>
+        <v>379</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9765,24 +9816,26 @@
         <v>81</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>137</v>
+        <v>380</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>81</v>
       </c>
@@ -9830,7 +9883,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9851,7 +9904,7 @@
         <v>81</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>354</v>
+        <v>133</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
@@ -9862,46 +9915,44 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>362</v>
+        <v>81</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>136</v>
+        <v>513</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>363</v>
+        <v>522</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>364</v>
+        <v>523</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>81</v>
       </c>
@@ -9949,19 +10000,19 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>365</v>
+        <v>521</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>81</v>
@@ -9970,7 +10021,7 @@
         <v>81</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>133</v>
+        <v>525</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
@@ -9981,10 +10032,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>512</v>
+        <v>526</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10007,13 +10058,13 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>483</v>
+        <v>368</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>513</v>
+        <v>369</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>514</v>
+        <v>370</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10064,7 +10115,7 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>512</v>
+        <v>371</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10076,7 +10127,7 @@
         <v>81</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>81</v>
@@ -10085,7 +10136,7 @@
         <v>81</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>515</v>
+        <v>372</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -10096,21 +10147,21 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>81</v>
@@ -10122,15 +10173,17 @@
         <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>517</v>
+        <v>135</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>518</v>
+        <v>374</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>81</v>
@@ -10179,19 +10232,19 @@
         <v>81</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>516</v>
+        <v>377</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>81</v>
@@ -10200,7 +10253,7 @@
         <v>81</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>520</v>
+        <v>372</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
@@ -10211,42 +10264,46 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>81</v>
+        <v>379</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>517</v>
+        <v>135</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>522</v>
+        <v>380</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>81</v>
       </c>
@@ -10294,19 +10351,19 @@
         <v>81</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>521</v>
+        <v>382</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>81</v>
@@ -10315,7 +10372,7 @@
         <v>81</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>520</v>
+        <v>133</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
@@ -10326,10 +10383,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10352,20 +10409,16 @@
         <v>81</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>81</v>
       </c>
@@ -10413,7 +10466,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10431,10 +10484,10 @@
         <v>81</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>530</v>
+        <v>81</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>81</v>
@@ -10445,10 +10498,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10471,17 +10524,15 @@
         <v>81</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N71" t="s" s="2">
         <v>536</v>
       </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>81</v>
@@ -10530,7 +10581,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10548,24 +10599,24 @@
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="AM71" t="s" s="2">
-        <v>538</v>
-      </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>539</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10588,13 +10639,13 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>483</v>
+        <v>534</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10645,7 +10696,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10663,24 +10714,24 @@
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>543</v>
+        <v>81</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>545</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10703,18 +10754,20 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>517</v>
+        <v>542</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>546</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>81</v>
       </c>
@@ -10762,7 +10815,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10780,10 +10833,10 @@
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>81</v>
@@ -10794,10 +10847,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10820,15 +10873,17 @@
         <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>81</v>
@@ -10877,7 +10932,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10895,16 +10950,16 @@
         <v>81</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>81</v>
+        <v>554</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO74" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="75" hidden="true">
@@ -10935,7 +10990,7 @@
         <v>81</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="L75" t="s" s="2">
         <v>558</v>
@@ -11019,15 +11074,15 @@
         <v>81</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>81</v>
+        <v>562</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11050,15 +11105,17 @@
         <v>81</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>350</v>
+        <v>534</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>351</v>
+        <v>564</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>565</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>566</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>81</v>
@@ -11107,7 +11164,7 @@
         <v>81</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>353</v>
+        <v>563</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11119,16 +11176,16 @@
         <v>81</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>81</v>
+        <v>567</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>354</v>
+        <v>568</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>81</v>
@@ -11139,21 +11196,21 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>81</v>
@@ -11165,17 +11222,15 @@
         <v>81</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>136</v>
+        <v>570</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>137</v>
+        <v>571</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>81</v>
@@ -11224,19 +11279,19 @@
         <v>81</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>360</v>
+        <v>569</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>81</v>
@@ -11245,10 +11300,10 @@
         <v>81</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>354</v>
+        <v>573</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>81</v>
@@ -11256,46 +11311,42 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>362</v>
+        <v>81</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>136</v>
+        <v>513</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>363</v>
+        <v>575</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>81</v>
       </c>
@@ -11343,28 +11394,28 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>365</v>
+        <v>574</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>81</v>
+        <v>577</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>133</v>
+        <v>578</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>81</v>
@@ -11375,10 +11426,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11386,7 +11437,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>90</v>
@@ -11401,17 +11452,15 @@
         <v>81</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>566</v>
+        <v>369</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>81</v>
@@ -11436,13 +11485,13 @@
         <v>81</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>569</v>
+        <v>81</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>570</v>
+        <v>81</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>81</v>
@@ -11460,10 +11509,10 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>565</v>
+        <v>371</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>90</v>
@@ -11472,41 +11521,41 @@
         <v>81</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>560</v>
+        <v>81</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>571</v>
+        <v>372</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>572</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>81</v>
@@ -11518,15 +11567,17 @@
         <v>81</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>574</v>
+        <v>374</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>81</v>
@@ -11551,13 +11602,13 @@
         <v>81</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>576</v>
+        <v>81</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>577</v>
+        <v>81</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>81</v>
@@ -11575,34 +11626,34 @@
         <v>81</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>573</v>
+        <v>377</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>578</v>
+        <v>81</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>579</v>
+        <v>372</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>580</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" hidden="true">
@@ -11614,35 +11665,39 @@
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>81</v>
+        <v>379</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>582</v>
+        <v>135</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>583</v>
+        <v>380</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>81</v>
       </c>
@@ -11690,28 +11745,28 @@
         <v>81</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>581</v>
+        <v>382</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>585</v>
+        <v>81</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>578</v>
+        <v>81</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>586</v>
+        <v>133</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>81</v>
@@ -11722,21 +11777,21 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>588</v>
+        <v>81</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>81</v>
@@ -11748,16 +11803,16 @@
         <v>81</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>589</v>
+        <v>419</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11783,13 +11838,13 @@
         <v>81</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>81</v>
+        <v>586</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>81</v>
+        <v>587</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>81</v>
@@ -11807,13 +11862,13 @@
         <v>81</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>81</v>
@@ -11825,24 +11880,24 @@
         <v>81</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>81</v>
+        <v>577</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>81</v>
+        <v>589</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11853,7 +11908,7 @@
         <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>81</v>
@@ -11865,17 +11920,15 @@
         <v>81</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>595</v>
+        <v>186</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>598</v>
-      </c>
+        <v>592</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>81</v>
@@ -11900,13 +11953,13 @@
         <v>81</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>81</v>
+        <v>593</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>81</v>
+        <v>594</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>81</v>
@@ -11924,13 +11977,13 @@
         <v>81</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>81</v>
@@ -11939,23 +11992,372 @@
         <v>102</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="AL83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM83" t="s" s="2">
+      <c r="L84" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="AN83" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO83" t="s" s="2">
+      <c r="M84" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO86" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO83">
+  <autoFilter ref="A1:AO86">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11965,7 +12367,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI82">
+  <conditionalFormatting sqref="A2:AI85">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-lmdi-medicationrequest.xlsx
+++ b/StructureDefinition-lmdi-medicationrequest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.2</t>
+    <t>1.0.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-01</t>
+    <t>2025-04-11</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -7700,7 +7700,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>81</v>

--- a/StructureDefinition-lmdi-medicationrequest.xlsx
+++ b/StructureDefinition-lmdi-medicationrequest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -2282,17 +2282,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.27734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="61.27734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.94921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.53515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="52.53515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.99609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.44140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2301,27 +2301,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="198.02734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="71.296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="59.37890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="169.7734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="50.90625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="128.41796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="245.42578125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="110.09375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-lmdi-medicationrequest.xlsx
+++ b/StructureDefinition-lmdi-medicationrequest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.4</t>
+    <t>1.0.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11</t>
+    <t>2025-09-12</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -374,7 +374,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -617,7 +617,7 @@
     <t>Identifies the reasons for a given status.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-status-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-status-reason|4.0.1</t>
   </si>
   <si>
     <t>Request.statusReason</t>
@@ -672,7 +672,7 @@
     <t>A coded concept identifying the category of medication request.  For example, where the medication is to be consumed or administered, or the type of medication treatment.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-category</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-category|4.0.1</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Directions@@ -841,7 +841,7 @@
     <t>MedicationRequest.supportingInformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -907,7 +907,7 @@
     <t>MedicationRequest.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|Device|RelatedPerson|CareTeam)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|Patient|4.0.1|Device|4.0.1|RelatedPerson|4.0.1|CareTeam|4.0.1)
 </t>
   </si>
   <si>
@@ -941,7 +941,7 @@
     <t>Identifies the type of individual that is desired to administer the medication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/performer-role</t>
+    <t>http://hl7.org/fhir/ValueSet/performer-role|4.0.1</t>
   </si>
   <si>
     <t>Request.performerType</t>
@@ -953,7 +953,7 @@
     <t>MedicationRequest.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -984,7 +984,7 @@
     <t>A coded concept indicating why the medication was ordered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code|4.0.1</t>
   </si>
   <si>
     <t>Request.reasonCode</t>
@@ -1055,7 +1055,7 @@
     <t>MedicationRequest.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|MedicationRequest|ServiceRequest|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|MedicationRequest|4.0.1|ServiceRequest|4.0.1|ImmunizationRecommendation|4.0.1)
 </t>
   </si>
   <si>
@@ -1104,7 +1104,7 @@
     <t>Identifies the overall pattern of medication administratio.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-course-of-therapy</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-course-of-therapy|4.0.1</t>
   </si>
   <si>
     <t>Act.code where classCode = LIST and moodCode = EVN</t>
@@ -1113,7 +1113,7 @@
     <t>MedicationRequest.insurance</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Coverage|ClaimResponse)
+    <t xml:space="preserve">Reference(Coverage|4.0.1|ClaimResponse|4.0.1)
 </t>
   </si>
   <si>
@@ -1285,7 +1285,7 @@
     <t>A coded concept identifying additional instructions such as "take with water" or "avoid operating heavy machinery".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/additional-instruction-codes|4.0.1</t>
   </si>
   <si>
     <t>Dosage.additionalInstruction</t>
@@ -1350,7 +1350,7 @@
     <t>A coded concept identifying the precondition that should be met or evaluated prior to consuming or administering a medication dose.  For example "pain", "30 minutes prior to sexual intercourse", "on flare-up" etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason|4.0.1</t>
   </si>
   <si>
     <t>Dosage.asNeeded[x]</t>
@@ -1380,7 +1380,7 @@
     <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/approach-site-codes|4.0.1</t>
   </si>
   <si>
     <t>Dosage.site</t>
@@ -1407,7 +1407,7 @@
     <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/route-codes|4.0.1</t>
   </si>
   <si>
     <t>Dosage.route</t>
@@ -1437,7 +1437,7 @@
     <t>A coded concept describing the technique by which the medicine is administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/administration-method-codes|4.0.1</t>
   </si>
   <si>
     <t>Dosage.method</t>
@@ -1489,7 +1489,7 @@
     <t>The kind of dose or rate specified.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/dose-rate-type</t>
+    <t>http://hl7.org/fhir/ValueSet/dose-rate-type|4.0.1</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.type</t>
@@ -1502,7 +1502,7 @@
   </si>
   <si>
     <t>Range
-Quantity {SimpleQuantity}</t>
+Quantity {SimpleQuantity|4.0.1}</t>
   </si>
   <si>
     <t>Amount of medication per dose</t>
@@ -1527,7 +1527,7 @@
   </si>
   <si>
     <t>Ratio
-RangeQuantity {SimpleQuantity}</t>
+RangeQuantity {SimpleQuantity|4.0.1}</t>
   </si>
   <si>
     <t>Amount of medication per unit of time</t>
@@ -1584,7 +1584,7 @@
     <t>MedicationRequest.dosageInstruction.maxDosePerAdministration</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1799,7 +1799,7 @@
     <t>MedicationRequest.dispenseRequest.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1910,7 +1910,7 @@
 Drug Utilization Review (DUR)Alert</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DetectedIssue)
+    <t xml:space="preserve">Reference(DetectedIssue|4.0.1)
 </t>
   </si>
   <si>
@@ -1929,7 +1929,7 @@
     <t>MedicationRequest.eventHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Provenance)
+    <t xml:space="preserve">Reference(Provenance|4.0.1)
 </t>
   </si>
   <si>
@@ -2292,7 +2292,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.44140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="107.140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-lmdi-medicationrequest.xlsx
+++ b/StructureDefinition-lmdi-medicationrequest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.6</t>
+    <t>1.0.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -3847,7 +3847,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>165</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>175</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>195</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>230</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>240</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>274</v>
       </c>
@@ -12358,12 +12358,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO86">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
